--- a/src/attributions/attributions_saliency_traj_100.xlsx
+++ b/src/attributions/attributions_saliency_traj_100.xlsx
@@ -2142,1709 +2142,1709 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001651828933972865</v>
+        <v>0.02620433084666729</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001041052397340536</v>
+        <v>0.1625630408525467</v>
       </c>
       <c r="C4" t="n">
-        <v>8.536165842087939e-05</v>
+        <v>0.007369479164481163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001065726508386433</v>
+        <v>0.1036650612950325</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004048232221975923</v>
+        <v>0.008833626285195351</v>
       </c>
       <c r="F4" t="n">
-        <v>3.818557161139324e-05</v>
+        <v>0.1547589004039764</v>
       </c>
       <c r="G4" t="n">
-        <v>9.069880616152659e-05</v>
+        <v>0.02962768822908401</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001466097892262042</v>
+        <v>0.0532512441277504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001799261663109064</v>
+        <v>0.02423838898539543</v>
       </c>
       <c r="J4" t="n">
-        <v>6.249078433029354e-05</v>
+        <v>0.04607455804944038</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009596738964319229</v>
+        <v>0.1366400867700577</v>
       </c>
       <c r="L4" t="n">
-        <v>4.399688259582035e-05</v>
+        <v>0.008767541497945786</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00110420014243573</v>
+        <v>0.09355147927999496</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0006875985418446362</v>
+        <v>0.02044802717864513</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001914894237415865</v>
+        <v>0.1547531485557556</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0001019471819745377</v>
+        <v>0.02900668047368526</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.631688590161502e-05</v>
+        <v>0.008361493237316608</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0003388155600987375</v>
+        <v>0.02375517413020134</v>
       </c>
       <c r="S4" t="n">
-        <v>5.875786882825196e-05</v>
+        <v>0.00163926079403609</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0001074670653906651</v>
+        <v>0.01491771545261145</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001042211806634441</v>
+        <v>0.009577157907187939</v>
       </c>
       <c r="V4" t="n">
-        <v>2.277221210533753e-05</v>
+        <v>0.03463337197899818</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0008169530774466693</v>
+        <v>0.02896359376609325</v>
       </c>
       <c r="X4" t="n">
-        <v>3.499770537018776e-05</v>
+        <v>0.009227629750967026</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.03978467854904e-05</v>
+        <v>0.01498647406697273</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.45885380031541e-05</v>
+        <v>0.02756420336663723</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.552925671916455e-05</v>
+        <v>0.02168102748692036</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0001031663923640735</v>
+        <v>0.008543414995074272</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0001128380681620911</v>
+        <v>0.009641565382480621</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.815734089585021e-05</v>
+        <v>0.009476873092353344</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0004333642136771232</v>
+        <v>0.004494990222156048</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.96215109503828e-05</v>
+        <v>0.007588244043290615</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.592004213714972e-05</v>
+        <v>0.01835079118609428</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0001136638020398095</v>
+        <v>0.01115202251821756</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.000193039231817238</v>
+        <v>0.007347557228058577</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.173145134700462e-05</v>
+        <v>0.01587040908634663</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.000272370147285983</v>
+        <v>0.0295365396887064</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.473614196991548e-05</v>
+        <v>0.01993954181671143</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.632395525230095e-06</v>
+        <v>0.002600298263132572</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.000186823817784898</v>
+        <v>0.005828710272908211</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001329246879322454</v>
+        <v>0.003538534278050065</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0001906604738906026</v>
+        <v>0.02718522027134895</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.738599950040225e-06</v>
+        <v>0.00606278283521533</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0001531552989035845</v>
+        <v>0.01533396821469069</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0001583611156092957</v>
+        <v>0.01923454366624355</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0003201828221790493</v>
+        <v>0.01281832344830036</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0005345381214283407</v>
+        <v>0.1166501194238663</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0001881419157143682</v>
+        <v>0.004844744689762592</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0003769503673538566</v>
+        <v>0.01697763800621033</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.064344001468271e-05</v>
+        <v>0.005966796539723873</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.242774492828175e-05</v>
+        <v>0.08068947494029999</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001784433552529663</v>
+        <v>0.007660307921469212</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0001823296042857692</v>
+        <v>0.0229332447052002</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.259974957676604e-05</v>
+        <v>0.04030207544565201</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.696311614476144e-05</v>
+        <v>0.02706237323582172</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0002890912583097816</v>
+        <v>0.04523194581270218</v>
       </c>
       <c r="BE4" t="n">
-        <v>7.831426046323031e-06</v>
+        <v>0.04671084508299828</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.000552873476408422</v>
+        <v>0.02459359169006348</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0003792813513427973</v>
+        <v>0.02345607057213783</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0001678033440839499</v>
+        <v>0.05469697713851929</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0001906717079691589</v>
+        <v>0.005182401742786169</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.911384399340022e-05</v>
+        <v>0.02455797791481018</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0002245273353764787</v>
+        <v>0.006882552988827229</v>
       </c>
       <c r="BL4" t="n">
-        <v>8.001583046279848e-05</v>
+        <v>0.006606573704630136</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0002996890689246356</v>
+        <v>0.05544756725430489</v>
       </c>
       <c r="BN4" t="n">
-        <v>4.701947182184085e-05</v>
+        <v>0.009289640001952648</v>
       </c>
       <c r="BO4" t="n">
-        <v>9.271364251617342e-05</v>
+        <v>0.02143483236432076</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0001776263670763001</v>
+        <v>0.02123954519629478</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.295363371260464e-05</v>
+        <v>0.005237782839685678</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.252137710456736e-05</v>
+        <v>0.02044288069009781</v>
       </c>
       <c r="BS4" t="n">
-        <v>6.212642620084807e-05</v>
+        <v>0.01325099170207977</v>
       </c>
       <c r="BT4" t="n">
-        <v>9.435343963559717e-05</v>
+        <v>0.0001926752738654613</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0003875806578435004</v>
+        <v>0.006009210366755724</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0001978395448531955</v>
+        <v>0.06299879401922226</v>
       </c>
       <c r="BW4" t="n">
-        <v>7.728202035650611e-05</v>
+        <v>0.01486259885132313</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0003849346248898655</v>
+        <v>0.02718273364007473</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0002885466674342752</v>
+        <v>0.003062496427446604</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0002642166509758681</v>
+        <v>0.0365273617208004</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0001070781145244837</v>
+        <v>0.009921745397150517</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0001928954443428665</v>
+        <v>0.005223043262958527</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.196902303490788e-05</v>
+        <v>0.02541003562510014</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.000128083978779614</v>
+        <v>0.001915775123052299</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0002459698298480362</v>
+        <v>0.02086746506392956</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.487559297354892e-05</v>
+        <v>0.02048926800489426</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0002052574709523469</v>
+        <v>0.0185958705842495</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0001539884833618999</v>
+        <v>0.01041124761104584</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.492694082116941e-05</v>
+        <v>0.02060766145586967</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.111392248276388e-05</v>
+        <v>0.01282194256782532</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.174574936158024e-05</v>
+        <v>0.0125113083049655</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.805270095355809e-05</v>
+        <v>0.01246373914182186</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.855051959864795e-05</v>
+        <v>0.02959324233233929</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0001503836829215288</v>
+        <v>0.02656352892518044</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.3629967472516e-05</v>
+        <v>0.005361232440918684</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0002576005063019693</v>
+        <v>0.01780389994382858</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0003386679163668305</v>
+        <v>0.003408873453736305</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0005085845477879047</v>
+        <v>0.0004484066739678383</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.865070902975276e-05</v>
+        <v>0.0146835669875145</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0001642829738557339</v>
+        <v>0.01843849383294582</v>
       </c>
       <c r="CU4" t="n">
-        <v>6.668770947726443e-05</v>
+        <v>0.003210222814232111</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0001429898402420804</v>
+        <v>0.0006099896272644401</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0002812522579915822</v>
+        <v>0.017901960760355</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.534451439511031e-05</v>
+        <v>0.01836326532065868</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0001654503284953535</v>
+        <v>0.02619011327624321</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0001406543015036732</v>
+        <v>0.009293004870414734</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.217659857706167e-05</v>
+        <v>0.02166216820478439</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.508620855223853e-05</v>
+        <v>0.01498304214328527</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.286430026288144e-05</v>
+        <v>0.02289460599422455</v>
       </c>
       <c r="DD4" t="n">
-        <v>4.943124076817185e-05</v>
+        <v>0.004938103258609772</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.00024606884107925</v>
+        <v>0.001138526480644941</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0003071962564717978</v>
+        <v>0.01522280462086201</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0001608823804417625</v>
+        <v>0.008833379484713078</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.060400402115192e-05</v>
+        <v>0.1036456003785133</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0001754934637574479</v>
+        <v>0.0112052820622921</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3.420432040002197e-05</v>
+        <v>0.008087888360023499</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0001592896296642721</v>
+        <v>0.01191198453307152</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0002490842598490417</v>
+        <v>0.02825925126671791</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0001421500346623361</v>
+        <v>0.02165839448571205</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.968713877431583e-05</v>
+        <v>0.01022202242165804</v>
       </c>
       <c r="DO4" t="n">
-        <v>6.069941446185112e-05</v>
+        <v>0.008316334336996078</v>
       </c>
       <c r="DP4" t="n">
-        <v>9.788927854970098e-05</v>
+        <v>0.01748614758253098</v>
       </c>
       <c r="DQ4" t="n">
-        <v>5.694984429283068e-05</v>
+        <v>0.003844284452497959</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0001072408194886521</v>
+        <v>0.003949547652155161</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.694372804195154e-05</v>
+        <v>0.001878701848909259</v>
       </c>
       <c r="DT4" t="n">
-        <v>7.412786362692714e-05</v>
+        <v>0.01811949163675308</v>
       </c>
       <c r="DU4" t="n">
-        <v>7.677488611079752e-06</v>
+        <v>0.000539424829185009</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0001702306763036177</v>
+        <v>0.02121624350547791</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.520535170129733e-05</v>
+        <v>0.0015070466324687</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.000275076599791646</v>
+        <v>0.001945187454111874</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0001434365985915065</v>
+        <v>0.01714527048170567</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0001626034791115671</v>
+        <v>0.01122249849140644</v>
       </c>
       <c r="EA4" t="n">
-        <v>7.928744162200019e-05</v>
+        <v>0.005997250322252512</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.285067941760644e-05</v>
+        <v>0.01347461622208357</v>
       </c>
       <c r="EC4" t="n">
-        <v>2.592166310932953e-05</v>
+        <v>0.007489819079637527</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0001175823563244194</v>
+        <v>0.00228352565318346</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0002772469888441265</v>
+        <v>0.004034289158880711</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0002109587949234992</v>
+        <v>0.009706985205411911</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0003448199713602662</v>
+        <v>0.01220774184912443</v>
       </c>
       <c r="EH4" t="n">
-        <v>7.44902208680287e-05</v>
+        <v>0.01462601218372583</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0002134616952389479</v>
+        <v>0.01018572133034468</v>
       </c>
       <c r="EJ4" t="n">
-        <v>7.548980647698045e-05</v>
+        <v>0.0004217363893985748</v>
       </c>
       <c r="EK4" t="n">
-        <v>2.99221483146539e-05</v>
+        <v>0.02442609705030918</v>
       </c>
       <c r="EL4" t="n">
-        <v>4.047012043884024e-05</v>
+        <v>0.008634529076516628</v>
       </c>
       <c r="EM4" t="n">
-        <v>4.413707938510925e-05</v>
+        <v>0.003221737453714013</v>
       </c>
       <c r="EN4" t="n">
-        <v>2.393607428530231e-05</v>
+        <v>0.003955864813178778</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0001154475758085027</v>
+        <v>0.007922972552478313</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0001898356131277978</v>
+        <v>0.004777438007295132</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0001995270431507379</v>
+        <v>0.01626287028193474</v>
       </c>
       <c r="ER4" t="n">
-        <v>5.829962174175307e-05</v>
+        <v>0.01895583607256413</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0001721870357869193</v>
+        <v>0.001181291649118066</v>
       </c>
       <c r="ET4" t="n">
-        <v>5.810099537484348e-06</v>
+        <v>0.00683626951649785</v>
       </c>
       <c r="EU4" t="n">
-        <v>4.109831934329122e-05</v>
+        <v>0.0226419921964407</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0001097544300137088</v>
+        <v>0.05918643996119499</v>
       </c>
       <c r="EW4" t="n">
-        <v>6.663969543296844e-05</v>
+        <v>0.01111357472836971</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0001149093804997392</v>
+        <v>6.221083458513021e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0002499817928764969</v>
+        <v>0.01559021882712841</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2.69260326604126e-05</v>
+        <v>0.01520712859928608</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.000153310364112258</v>
+        <v>0.0204820167273283</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0001481368963140994</v>
+        <v>0.005692728329449892</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.730242886173073e-05</v>
+        <v>0.0178968571126461</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.932790837599896e-05</v>
+        <v>0.021457364782691</v>
       </c>
       <c r="FE4" t="n">
-        <v>4.171416003373452e-05</v>
+        <v>0.01495361141860485</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.747774695104454e-05</v>
+        <v>0.01205797307193279</v>
       </c>
       <c r="FG4" t="n">
-        <v>3.318287417641841e-05</v>
+        <v>0.006032861769199371</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.378577144350857e-05</v>
+        <v>0.01563992910087109</v>
       </c>
       <c r="FI4" t="n">
-        <v>5.096193490317091e-05</v>
+        <v>0.01319282501935959</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0001905316894408315</v>
+        <v>0.01930096000432968</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0002161833253921941</v>
+        <v>6.790034240111709e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0001085907715605572</v>
+        <v>0.02321168035268784</v>
       </c>
       <c r="FM4" t="n">
-        <v>3.914599074050784e-05</v>
+        <v>9.811297059059143e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0001297243579756469</v>
+        <v>0.01990045979619026</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0002445063146296889</v>
+        <v>0.007701684255152941</v>
       </c>
       <c r="FP4" t="n">
-        <v>5.735508966608904e-05</v>
+        <v>0.0135606937110424</v>
       </c>
       <c r="FQ4" t="n">
-        <v>6.189258419908583e-05</v>
+        <v>0.005173347890377045</v>
       </c>
       <c r="FR4" t="n">
-        <v>6.185268284752965e-05</v>
+        <v>0.01955744996666908</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0001342869945801795</v>
+        <v>0.03521304205060005</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0002970103814732283</v>
+        <v>0.001622440759092569</v>
       </c>
       <c r="FU4" t="n">
-        <v>9.250266157323495e-05</v>
+        <v>0.01636040024459362</v>
       </c>
       <c r="FV4" t="n">
-        <v>4.492442531045526e-05</v>
+        <v>0.01889514923095703</v>
       </c>
       <c r="FW4" t="n">
-        <v>2.366990156588145e-05</v>
+        <v>0.001115520019084215</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0002607145288493484</v>
+        <v>0.00712584936991334</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0001043451338773593</v>
+        <v>0.03277172148227692</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3.763678978430107e-05</v>
+        <v>0.00221226061694324</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0001090233563445508</v>
+        <v>0.006149365566670895</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0002132069494109601</v>
+        <v>0.005887632723897696</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.000279522268101573</v>
+        <v>0.01041922625154257</v>
       </c>
       <c r="GD4" t="n">
-        <v>8.075236110016704e-05</v>
+        <v>0.02629020251333714</v>
       </c>
       <c r="GE4" t="n">
-        <v>4.700462886830792e-05</v>
+        <v>0.07808005064725876</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0002010527823586017</v>
+        <v>0.004865140188485384</v>
       </c>
       <c r="GG4" t="n">
-        <v>9.555498400004581e-05</v>
+        <v>0.01678404957056046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0005632172105833888</v>
+        <v>0.0004390071844682097</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004005210008472204</v>
+        <v>0.1668816059827805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001523897517472506</v>
+        <v>0.02141944319009781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01379222050309181</v>
+        <v>0.1192015931010246</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003058427479118109</v>
+        <v>0.07956826686859131</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001951106125488877</v>
+        <v>0.07096609473228455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0007816384313628078</v>
+        <v>0.01381024345755577</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03650682419538498</v>
+        <v>0.04139907285571098</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00442004669457674</v>
+        <v>0.01509724371135235</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00428705383092165</v>
+        <v>0.005401910282671452</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002113745082169771</v>
+        <v>0.134874701499939</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009572443086653948</v>
+        <v>0.01403117459267378</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01069675851613283</v>
+        <v>0.1147332787513733</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007505378685891628</v>
+        <v>0.09553638100624084</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01074626203626394</v>
+        <v>0.07981357723474503</v>
       </c>
       <c r="P5" t="n">
-        <v>0.008123038336634636</v>
+        <v>0.01882201060652733</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04351631924510002</v>
+        <v>0.01125381886959076</v>
       </c>
       <c r="R5" t="n">
-        <v>0.007396422326564789</v>
+        <v>0.03210334852337837</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007752183824777603</v>
+        <v>0.004852649755775928</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002410136396065354</v>
+        <v>0.02168729528784752</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004439292009919882</v>
+        <v>0.01802690699696541</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002320058178156614</v>
+        <v>0.03795328363776207</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02005099318921566</v>
+        <v>0.04291402921080589</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005046027712523937</v>
+        <v>0.02019067294895649</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001908919424749911</v>
+        <v>0.0009157417807728052</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01263733673840761</v>
+        <v>0.01297765038907528</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002576440572738647</v>
+        <v>0.01298646070063114</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.005793334916234016</v>
+        <v>0.001959564164280891</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0006218604976311326</v>
+        <v>0.01908646337687969</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.003530960530042648</v>
+        <v>0.005438222549855709</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.007676586508750916</v>
+        <v>0.01077514234930277</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.001450386014766991</v>
+        <v>0.03721179068088531</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.000677041825838387</v>
+        <v>0.01990124955773354</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.006041777785867453</v>
+        <v>0.008414683863520622</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0104580195620656</v>
+        <v>0.01160756312310696</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.006599375512450933</v>
+        <v>0.02004199288785458</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0007921039941720665</v>
+        <v>0.001219010562635958</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.004913985263556242</v>
+        <v>0.02130866795778275</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0005698006134480238</v>
+        <v>0.001260299701243639</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0005198725266382098</v>
+        <v>0.01600166410207748</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01173330470919609</v>
+        <v>0.000658039003610611</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001882050419226289</v>
+        <v>0.02353043481707573</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.732923116534948e-05</v>
+        <v>0.001387106254696846</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.002334880409762263</v>
+        <v>0.01797004789113998</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0004913687007501721</v>
+        <v>0.008191290311515331</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001819458208046854</v>
+        <v>0.01483499724417925</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.00443451851606369</v>
+        <v>0.07562947273254395</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.002609130693599582</v>
+        <v>0.01815722696483135</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.00888569001108408</v>
+        <v>0.03098126128315926</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.007705287076532841</v>
+        <v>0.0468234047293663</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0006595312734134495</v>
+        <v>0.02907797694206238</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.003615069668740034</v>
+        <v>0.01545749604701996</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0140985744073987</v>
+        <v>0.02105859108269215</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.001693703699856997</v>
+        <v>0.0112916324287653</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0003705248236656189</v>
+        <v>0.007793604861944914</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0001169940223917365</v>
+        <v>0.05006313323974609</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001117126783356071</v>
+        <v>0.01280665956437588</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01049675419926643</v>
+        <v>0.06037153676152229</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.002900921739637852</v>
+        <v>0.09489315003156662</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.003343111369758844</v>
+        <v>0.04412947222590446</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.004603243432939053</v>
+        <v>0.006275014020502567</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.008446936495602131</v>
+        <v>0.006706149782985449</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.004973394330590963</v>
+        <v>0.009970603510737419</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001251522335223854</v>
+        <v>0.008619766682386398</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.006005038041621447</v>
+        <v>0.009285056032240391</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.000362506863893941</v>
+        <v>0.00686959270387888</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.002389630302786827</v>
+        <v>0.02188623324036598</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0005878825322724879</v>
+        <v>0.0001910814899019897</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.00117629871238023</v>
+        <v>0.008188752457499504</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.004324027802795172</v>
+        <v>0.02494356967508793</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.005341183394193649</v>
+        <v>0.0104797538369894</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.001523393089883029</v>
+        <v>0.01177496369928122</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002097627846524119</v>
+        <v>0.0145825631916523</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.001442756620235741</v>
+        <v>0.05161365494132042</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0002971886424347758</v>
+        <v>0.002667550463229418</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001148014678619802</v>
+        <v>0.0199083536863327</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.002866352209821343</v>
+        <v>0.03141935914754868</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.004310108255594969</v>
+        <v>0.00193663639947772</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.004535128362476826</v>
+        <v>0.004298810847103596</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01616012305021286</v>
+        <v>0.005886521190404892</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0002619748702272773</v>
+        <v>0.02930511720478535</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0002559130662120879</v>
+        <v>0.005339994560927153</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.001855858601629734</v>
+        <v>0.02430110797286034</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0002353108720853925</v>
+        <v>0.00173273088876158</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.00212167901918292</v>
+        <v>0.02998505719006062</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.00120755669195205</v>
+        <v>0.005715752951800823</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0004837870947085321</v>
+        <v>0.008854684419929981</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.001018211245536804</v>
+        <v>0.008479282259941101</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.006469956133514643</v>
+        <v>0.00309392437338829</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0004811884718947113</v>
+        <v>0.0006691025337204337</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001916424371302128</v>
+        <v>0.001358481356874108</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0005027339793741703</v>
+        <v>0.00110120652243495</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.002087998203933239</v>
+        <v>0.001800989964976907</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.00398205267265439</v>
+        <v>0.0172771867364645</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.004930820781737566</v>
+        <v>0.05740734562277794</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.002530777361243963</v>
+        <v>0.01330643240362406</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.001540262950584292</v>
+        <v>0.03453919664025307</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.003320352407172322</v>
+        <v>0.02354790642857552</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.001723564928397536</v>
+        <v>0.00373479095287621</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0003395068633835763</v>
+        <v>0.005152496043592691</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.001462031854316592</v>
+        <v>0.02278447337448597</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0009660760406404734</v>
+        <v>0.004371141083538532</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.001384359318763018</v>
+        <v>0.02349788881838322</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.002643686253577471</v>
+        <v>0.009850725531578064</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0006250006845220923</v>
+        <v>0.02105208672583103</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.75923521257937e-05</v>
+        <v>0.01061337813735008</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.006900268606841564</v>
+        <v>0.0003480447921901941</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.292588422074914e-05</v>
+        <v>0.006012547761201859</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.007383391726762056</v>
+        <v>0.002243557944893837</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01476988289505243</v>
+        <v>0.06633327901363373</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.005074892193078995</v>
+        <v>0.02349170297384262</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.00131040089763701</v>
+        <v>0.04135753959417343</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.000715751841198653</v>
+        <v>0.01792309060692787</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.000477557914564386</v>
+        <v>0.02212728932499886</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.001371983787976205</v>
+        <v>0.000493926927447319</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.004411671310663223</v>
+        <v>0.0009443759918212891</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.002134977374225855</v>
+        <v>0.01537694595754147</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002675974508747458</v>
+        <v>0.01372290402650833</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.00261344201862812</v>
+        <v>0.02059588022530079</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.001486255554482341</v>
+        <v>0.01547486428171396</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0007798571605235338</v>
+        <v>0.04895665496587753</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.002605552086606622</v>
+        <v>0.02494165115058422</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0007771087111905217</v>
+        <v>0.0006682410603389144</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.005445762071758509</v>
+        <v>0.001724519766867161</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.002867517061531544</v>
+        <v>0.02000041306018829</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.003309050807729363</v>
+        <v>0.01315190270543098</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.004441652912646532</v>
+        <v>0.001803454128094018</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.005802387371659279</v>
+        <v>0.0001271868823096156</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0008327656541951001</v>
+        <v>0.005095706321299076</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.00279474793933332</v>
+        <v>0.001140789361670613</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.002682017628103495</v>
+        <v>0.002320247702300549</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.002522984286770225</v>
+        <v>0.02881537564098835</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.002567943884059787</v>
+        <v>0.01290768850594759</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.003093592822551727</v>
+        <v>0.0008773221634328365</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.000330325128743425</v>
+        <v>0.0009276564233005047</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.001436616061255336</v>
+        <v>0.00016974494792521</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0005026865401305258</v>
+        <v>0.00325555307790637</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0001453349832445383</v>
+        <v>0.006168375723063946</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.004854848608374596</v>
+        <v>0.001673674676567316</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001424870570190251</v>
+        <v>0.001680875197052956</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.004514582455158234</v>
+        <v>0.00856802798807621</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.001792357536032796</v>
+        <v>0.00214920099824667</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.009952416643500328</v>
+        <v>0.01216037571430206</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.001604397315531969</v>
+        <v>0.008760001510381699</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.00296667986549437</v>
+        <v>0.000426948769018054</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.006345296278595924</v>
+        <v>0.0143913496285677</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.005976053886115551</v>
+        <v>0.00330717209726572</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001854408765211701</v>
+        <v>0.007071460597217083</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.00510709173977375</v>
+        <v>0.02307818457484245</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003033916698768735</v>
+        <v>0.04120669513940811</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0009761483524926007</v>
+        <v>0.01229572109878063</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001465920591726899</v>
+        <v>0.01404171995818615</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0005561633734032512</v>
+        <v>0.006866054609417915</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0005952468491159379</v>
+        <v>0.005664738826453686</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0006760734831914306</v>
+        <v>0.02482538670301437</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0007116374326869845</v>
+        <v>0.001240723417140543</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.001358027220703661</v>
+        <v>0.02619905769824982</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002227994613349438</v>
+        <v>0.007275337819010019</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0002060383267235011</v>
+        <v>0.0180349126458168</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0004652245261240751</v>
+        <v>0.0157279297709465</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.006580171175301075</v>
+        <v>0.004761601332575083</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0003523718623910099</v>
+        <v>0.001106858951970935</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.005468505900353193</v>
+        <v>0.0006766760488972068</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.001706508686766028</v>
+        <v>0.01845312863588333</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.001924893818795681</v>
+        <v>0.008335902355611324</v>
       </c>
       <c r="FJ5" t="n">
-        <v>9.406707249581814e-06</v>
+        <v>0.01151523739099503</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.004718782380223274</v>
+        <v>0.01324106007814407</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.003346037585288286</v>
+        <v>0.0231517031788826</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.004510549362748861</v>
+        <v>0.004624408669769764</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.006694618612527847</v>
+        <v>0.0214653592556715</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0005819094367325306</v>
+        <v>0.006955166347324848</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.003833441995084286</v>
+        <v>0.00914294645190239</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0006335762445814908</v>
+        <v>0.02935934066772461</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0032338195014745</v>
+        <v>0.01016635727137327</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.003151673590764403</v>
+        <v>0.004924099892377853</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0003066450590267777</v>
+        <v>0.03293886035680771</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0008812302257865667</v>
+        <v>0.008288704790174961</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.004395115654915571</v>
+        <v>0.05820749327540398</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01180793531239033</v>
+        <v>0.006465547252446413</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.004373842384666204</v>
+        <v>0.003792824223637581</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.002174013527110219</v>
+        <v>0.0007599950768053532</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.008449592627584934</v>
+        <v>0.01385652273893356</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.002894191537052393</v>
+        <v>0.006802438758313656</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.003480489365756512</v>
+        <v>0.01373174879699945</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.004132114350795746</v>
+        <v>0.08395864814519882</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.002107538748532534</v>
+        <v>0.02481918036937714</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.003503014100715518</v>
+        <v>0.05725362524390221</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002056548371911049</v>
+        <v>0.007945786230266094</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0003710703167598695</v>
+        <v>0.01181355956941843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007228190079331398</v>
+        <v>0.04966741055250168</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009265506640076637</v>
+        <v>0.1476506739854813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01072563230991364</v>
+        <v>0.04378611966967583</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01349697634577751</v>
+        <v>0.1417827606201172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007744177710264921</v>
+        <v>0.2576279640197754</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0301777757704258</v>
+        <v>0.20000259578228</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00987827405333519</v>
+        <v>0.1112138032913208</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03417855501174927</v>
+        <v>0.05671815574169159</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007045939564704895</v>
+        <v>0.1217257231473923</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006959788035601377</v>
+        <v>0.08148683607578278</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002067148161586374</v>
+        <v>0.06563463062047958</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01416616328060627</v>
+        <v>0.01298161596059799</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01545216049998999</v>
+        <v>0.1377876698970795</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006418775301426649</v>
+        <v>0.2181730568408966</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02303370088338852</v>
+        <v>0.1034800261259079</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008224244229495525</v>
+        <v>0.04561899602413177</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03421363979578018</v>
+        <v>0.07793068885803223</v>
       </c>
       <c r="R6" t="n">
-        <v>0.008334023877978325</v>
+        <v>0.09435752034187317</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0007912986911833286</v>
+        <v>0.01451932638883591</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0006270394078455865</v>
+        <v>0.007003224454820156</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003194711403921247</v>
+        <v>0.05124014988541603</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002999368589371443</v>
+        <v>0.108162447810173</v>
       </c>
       <c r="W6" t="n">
-        <v>0.009458337910473347</v>
+        <v>0.1736438721418381</v>
       </c>
       <c r="X6" t="n">
-        <v>0.008010211400687695</v>
+        <v>0.003004615660756826</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001695318962447345</v>
+        <v>0.01995348185300827</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001291434396989644</v>
+        <v>0.03702054917812347</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.007232164032757282</v>
+        <v>0.04983071982860565</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.004619363229721785</v>
+        <v>0.03679622709751129</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.002444956451654434</v>
+        <v>0.07872673869132996</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.003634233959019184</v>
+        <v>0.1231985315680504</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.001778340549208224</v>
+        <v>0.03657511621713638</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01036939956247807</v>
+        <v>0.056638203561306</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.002428218256682158</v>
+        <v>0.02058441936969757</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01259131357073784</v>
+        <v>0.02944206073880196</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.004143239930272102</v>
+        <v>0.06831051409244537</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.001566375605762005</v>
+        <v>0.1000531911849976</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0004172321932855994</v>
+        <v>0.0240405835211277</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.003231226000934839</v>
+        <v>0.03120988421142101</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.006337244063615799</v>
+        <v>0.009889727458357811</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.001162394299171865</v>
+        <v>0.07261491566896439</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01092742197215557</v>
+        <v>0.005904311314225197</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.003771263174712658</v>
+        <v>0.01070646662265062</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0007473224541172385</v>
+        <v>0.04515756294131279</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0002368767745792866</v>
+        <v>0.0386628657579422</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001165078138001263</v>
+        <v>0.03778652101755142</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.003298952244222164</v>
+        <v>0.06044142320752144</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.006057664752006531</v>
+        <v>0.02285652421414852</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.00562653224915266</v>
+        <v>0.09258657693862915</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.002481132280081511</v>
+        <v>0.03774760290980339</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.006685194559395313</v>
+        <v>0.213341623544693</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01908341236412525</v>
+        <v>0.1737181842327118</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0008681467152200639</v>
+        <v>0.1952494829893112</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.01896698959171772</v>
+        <v>0.03715326637029648</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.006169779226183891</v>
+        <v>0.1061955690383911</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.001910367864184082</v>
+        <v>0.02317168563604355</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.00198862561956048</v>
+        <v>0.08089941740036011</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.00338589888997376</v>
+        <v>0.01199213042855263</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.01199160050600767</v>
+        <v>0.2685357332229614</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.005271610338240862</v>
+        <v>0.2810813784599304</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.003641894785687327</v>
+        <v>0.03927721083164215</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.007659503258764744</v>
+        <v>0.1757026463747025</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.01106209680438042</v>
+        <v>0.008017978630959988</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.001358376117423177</v>
+        <v>0.06057221069931984</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.003430303651839495</v>
+        <v>0.008776217699050903</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0009690865408629179</v>
+        <v>0.02517291344702244</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.005489055998623371</v>
+        <v>0.02299828641116619</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.000596925150603056</v>
+        <v>0.06165381893515587</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.00119937164708972</v>
+        <v>0.0859382376074791</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.002233080565929413</v>
+        <v>0.05204086750745773</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.006274755578488111</v>
+        <v>0.1716395914554596</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.0008855974301695824</v>
+        <v>0.001751587609760463</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.003782019950449467</v>
+        <v>0.0290475245565176</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.008537922985851765</v>
+        <v>0.001710034906864166</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.003480603452771902</v>
+        <v>0.001788066467270255</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.001416826038621366</v>
+        <v>0.0005586035549640656</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0002245106734335423</v>
+        <v>0.02193097397685051</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.006512789521366358</v>
+        <v>0.1913887858390808</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.007330960594117641</v>
+        <v>0.02871143072843552</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.004231092985719442</v>
+        <v>0.120043009519577</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.01270652841776609</v>
+        <v>0.05611307919025421</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.003490367438644171</v>
+        <v>0.1075241789221764</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.003467563772574067</v>
+        <v>0.02016713470220566</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.006356143392622471</v>
+        <v>0.01160313189029694</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.003311126958578825</v>
+        <v>0.02105719968676567</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.004760333336889744</v>
+        <v>0.05949924513697624</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.002613164484500885</v>
+        <v>0.02454156242311001</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.005636188201606274</v>
+        <v>0.03222160786390305</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.001394627848640084</v>
+        <v>6.453879177570343e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.005200788378715515</v>
+        <v>0.02239870652556419</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0003402399597689509</v>
+        <v>0.01124594639986753</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.008352331817150116</v>
+        <v>0.05378780514001846</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.001236518961377442</v>
+        <v>0.09085658192634583</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.002105136401951313</v>
+        <v>0.03693127632141113</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.007658448070287704</v>
+        <v>0.227637842297554</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01757673546671867</v>
+        <v>0.2959787249565125</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.002038536826148629</v>
+        <v>0.08356401324272156</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.002969784196466208</v>
+        <v>0.0899084210395813</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.002155024092644453</v>
+        <v>0.09619009494781494</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.006062856875360012</v>
+        <v>0.01664398238062859</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.002961173187941313</v>
+        <v>0.01106912456452847</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.009672491811215878</v>
+        <v>0.02055462077260017</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.003296243492513895</v>
+        <v>0.01389832515269518</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.003190336748957634</v>
+        <v>0.02702505141496658</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.003104740520939231</v>
+        <v>0.02802114747464657</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.006151439156383276</v>
+        <v>0.03799693286418915</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0005635563284158707</v>
+        <v>0.009818460792303085</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.007345429621636868</v>
+        <v>0.004982314072549343</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.0008460402023047209</v>
+        <v>0.03787136822938919</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.00528359692543745</v>
+        <v>0.01357612758874893</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.001161911524832249</v>
+        <v>0.1183664798736572</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.006173061206936836</v>
+        <v>0.0188112985342741</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.008710501715540886</v>
+        <v>0.05386701971292496</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.003579707816243172</v>
+        <v>0.1013593971729279</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.01074282079935074</v>
+        <v>0.09516658633947372</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.006361834239214659</v>
+        <v>0.03664079308509827</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.002551570069044828</v>
+        <v>0.1083894148468971</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.004899648483842611</v>
+        <v>0.0449841246008873</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.005958643741905689</v>
+        <v>0.01962243393063545</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0002342526859138161</v>
+        <v>0.07625159621238708</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.003517568111419678</v>
+        <v>0.01645456627011299</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.006378976628184319</v>
+        <v>0.212555930018425</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.002990336157381535</v>
+        <v>0.1806102395057678</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.002499489579349756</v>
+        <v>0.1771031320095062</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.002478832844644785</v>
+        <v>0.03730294853448868</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.0008873454062268138</v>
+        <v>0.06059073656797409</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.004852418322116137</v>
+        <v>0.02613987028598785</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.004190434701740742</v>
+        <v>0.02174537070095539</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0003806469903793186</v>
+        <v>0.02686660178005695</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0006547856028191745</v>
+        <v>0.04716358706355095</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.0008050696924328804</v>
+        <v>0.001370164100080729</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.001206603832542896</v>
+        <v>0.0639498382806778</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.0018152886768803</v>
+        <v>0.02284926548600197</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.001641311915591359</v>
+        <v>0.127365842461586</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.002608587266877294</v>
+        <v>0.1700231730937958</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.001104399445466697</v>
+        <v>0.1100135520100594</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.007807979825884104</v>
+        <v>0.04659232497215271</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.009259575046598911</v>
+        <v>8.991919457912445e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.003188078058883548</v>
+        <v>0.04237784445285797</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.004806931596249342</v>
+        <v>0.1361923664808273</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.002250798279419541</v>
+        <v>0.1197758093476295</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.001438547391444445</v>
+        <v>0.05224248766899109</v>
       </c>
       <c r="EL6" t="n">
-        <v>8.193001849576831e-05</v>
+        <v>0.006557490676641464</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.006784678902477026</v>
+        <v>0.09605506062507629</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.0003389948979020119</v>
+        <v>0.01904300041496754</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.001925153192132711</v>
+        <v>0.03859259933233261</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.006629940122365952</v>
+        <v>0.06725014746189117</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.002920840168371797</v>
+        <v>0.009928964078426361</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.004636156838387251</v>
+        <v>0.006869291886687279</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.007372959051281214</v>
+        <v>0.05993694812059402</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.002244235249236226</v>
+        <v>0.1757265478372574</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.001426380942575634</v>
+        <v>0.0008070701733231544</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.004839891567826271</v>
+        <v>0.006659485399723053</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.0006077394355088472</v>
+        <v>0.03811201825737953</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.003843990154564381</v>
+        <v>0.02541914209723473</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.007368004415184259</v>
+        <v>0.01370387431234121</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.003633129643276334</v>
+        <v>0.005274359136819839</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.004520037211477757</v>
+        <v>0.04265093058347702</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.004300443455576897</v>
+        <v>0.04608007520437241</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.005609093699604273</v>
+        <v>0.04131782799959183</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.00143704132642597</v>
+        <v>0.02677316218614578</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.007203165907412767</v>
+        <v>0.002673357725143433</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0008203779580071568</v>
+        <v>0.01346011180430651</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.003724997863173485</v>
+        <v>0.0298811998218298</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.005648716352880001</v>
+        <v>0.1376726627349854</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.0007086317054927349</v>
+        <v>0.09248591214418411</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.002057879464700818</v>
+        <v>0.02847671508789062</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.002668592380359769</v>
+        <v>0.09522442519664764</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.008956325240433216</v>
+        <v>0.07303882390260696</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.001030370476655662</v>
+        <v>0.09608428925275803</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.00112004904076457</v>
+        <v>0.04025577008724213</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.004034227691590786</v>
+        <v>0.06919564306735992</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.003209051443263888</v>
+        <v>0.08539390563964844</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.004755337722599506</v>
+        <v>0.08150556683540344</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.002166476333513856</v>
+        <v>0.06141851842403412</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.01705331355333328</v>
+        <v>0.1280750036239624</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.004137147217988968</v>
+        <v>0.2918100655078888</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.01368154585361481</v>
+        <v>0.07280909270048141</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.0001596306683495641</v>
+        <v>0.2070415914058685</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.006218848284333944</v>
+        <v>0.01729526370763779</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.002933472162112594</v>
+        <v>0.007848531939089298</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.00115539925172925</v>
+        <v>0.02026910707354546</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.005484444554895163</v>
+        <v>0.05148264765739441</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0008005732670426369</v>
+        <v>0.01654068008065224</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.0007461764616891742</v>
+        <v>0.001112494617700577</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.003692805767059326</v>
+        <v>0.1337976455688477</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.005360411014407873</v>
+        <v>0.02161900699138641</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.003823935287073255</v>
+        <v>0.1691654026508331</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.000291542150080204</v>
+        <v>0.02602415531873703</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.001116652972996235</v>
+        <v>0.03305090963840485</v>
       </c>
     </row>
   </sheetData>
